--- a/teaching/traditional_assets/database/data/france/france_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0268</v>
+        <v>0.00289</v>
       </c>
       <c r="E2">
-        <v>0.08160000000000001</v>
+        <v>-0.09900000000000002</v>
       </c>
       <c r="F2">
-        <v>0.0238</v>
+        <v>-0.0649</v>
       </c>
       <c r="G2">
-        <v>0.001769466300336136</v>
+        <v>0.002213300012862682</v>
       </c>
       <c r="H2">
-        <v>0.001769466300336136</v>
+        <v>0.002213300012862682</v>
       </c>
       <c r="I2">
-        <v>0.0007977690918903219</v>
+        <v>0.004180278552757799</v>
       </c>
       <c r="J2">
-        <v>0.0007205811988454336</v>
+        <v>0.003581993926172231</v>
       </c>
       <c r="K2">
-        <v>2473.41</v>
+        <v>401.54</v>
       </c>
       <c r="L2">
-        <v>0.1851673566557117</v>
+        <v>0.03689200859962147</v>
       </c>
       <c r="M2">
-        <v>177.85</v>
+        <v>24.52</v>
       </c>
       <c r="N2">
-        <v>0.01072244629733461</v>
+        <v>0.001800135083546237</v>
       </c>
       <c r="O2">
-        <v>0.0719047792319106</v>
+        <v>0.06106490013448225</v>
       </c>
       <c r="P2">
-        <v>94.19999999999999</v>
+        <v>24.52</v>
       </c>
       <c r="Q2">
-        <v>0.005679249036878944</v>
+        <v>0.001800135083546237</v>
       </c>
       <c r="R2">
-        <v>0.03808507283466953</v>
+        <v>0.06106490013448225</v>
       </c>
       <c r="S2">
-        <v>83.65000000000002</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.470340174304189</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>29322.26</v>
+        <v>36349.92</v>
       </c>
       <c r="V2">
-        <v>1.767817588791019</v>
+        <v>2.668628314685931</v>
       </c>
       <c r="W2">
-        <v>0.1091732553416118</v>
+        <v>0.04411819216744908</v>
       </c>
       <c r="X2">
-        <v>0.03670295248963438</v>
+        <v>0.02227973671115513</v>
       </c>
       <c r="Y2">
-        <v>0.07247030285197742</v>
+        <v>0.02183845545629395</v>
       </c>
       <c r="Z2">
-        <v>0.3169460449029894</v>
+        <v>0.2236274125595279</v>
       </c>
       <c r="AA2">
-        <v>0.002179730566792496</v>
+        <v>0.1422133769279977</v>
       </c>
       <c r="AB2">
-        <v>0.02819730778307318</v>
+        <v>0.02090303043734218</v>
       </c>
       <c r="AC2">
-        <v>-0.02601757721628068</v>
+        <v>0.123516859075864</v>
       </c>
       <c r="AD2">
-        <v>58830.09</v>
+        <v>46077.43</v>
       </c>
       <c r="AE2">
-        <v>274.6181990062832</v>
+        <v>1.35506088036788</v>
       </c>
       <c r="AF2">
-        <v>59104.70819900629</v>
+        <v>46078.78506088037</v>
       </c>
       <c r="AG2">
-        <v>29782.44819900628</v>
+        <v>9728.865060880373</v>
       </c>
       <c r="AH2">
-        <v>0.780864164181084</v>
+        <v>0.771839138885722</v>
       </c>
       <c r="AI2">
-        <v>0.699429832112052</v>
+        <v>0.6441030139331785</v>
       </c>
       <c r="AJ2">
-        <v>0.6422901725773892</v>
+        <v>0.4166525889976927</v>
       </c>
       <c r="AK2">
-        <v>0.5397143875520801</v>
+        <v>0.2764703278786002</v>
       </c>
       <c r="AL2">
-        <v>2.406</v>
+        <v>2.336</v>
       </c>
       <c r="AM2">
-        <v>2.215</v>
+        <v>2.226</v>
       </c>
       <c r="AN2">
-        <v>882.0103448275862</v>
+        <v>925.2495983935744</v>
       </c>
       <c r="AO2">
-        <v>9.800498753117207</v>
+        <v>19.04965753424658</v>
       </c>
       <c r="AP2">
-        <v>446.5134662519683</v>
+        <v>195.3587361622565</v>
       </c>
       <c r="AQ2">
-        <v>10.64559819413092</v>
+        <v>19.99101527403414</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABC arbitrage SA (ENXTPA:ABCA)</t>
+          <t>Advenis SA (ENXTPA:ADV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +728,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0228</v>
-      </c>
-      <c r="E3">
-        <v>0.0152</v>
+        <v>0.00289</v>
       </c>
       <c r="G3">
-        <v>0.5066371681415929</v>
+        <v>0.03426423200859291</v>
       </c>
       <c r="H3">
-        <v>0.5066371681415929</v>
+        <v>0.03426423200859291</v>
       </c>
       <c r="I3">
-        <v>0.4889380530973451</v>
+        <v>0.04726100966702471</v>
       </c>
       <c r="J3">
-        <v>0.4889380530973451</v>
+        <v>0.04726100966702471</v>
       </c>
       <c r="K3">
-        <v>22.4</v>
+        <v>-2.96</v>
       </c>
       <c r="L3">
-        <v>0.495575221238938</v>
+        <v>-0.0317937701396348</v>
       </c>
       <c r="M3">
-        <v>32.05</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07317351598173517</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.430803571428572</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>28.6</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.06529680365296804</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.276785714285714</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3.450000000000003</v>
-      </c>
-      <c r="T3">
-        <v>0.107644305772231</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>22.6</v>
+        <v>7.32</v>
       </c>
       <c r="V3">
-        <v>0.05159817351598174</v>
+        <v>0.2407894736842106</v>
       </c>
       <c r="W3">
-        <v>0.128440366972477</v>
+        <v>-0.4892561983471074</v>
       </c>
       <c r="X3">
-        <v>0.02774396933523956</v>
+        <v>0.02451430917896858</v>
       </c>
       <c r="Y3">
-        <v>0.1006963976372375</v>
+        <v>-0.513770507526076</v>
       </c>
       <c r="Z3">
-        <v>0.2823235477826359</v>
+        <v>14.56964006259781</v>
       </c>
       <c r="AA3">
-        <v>0.1380387257963773</v>
+        <v>0.6885758998435054</v>
       </c>
       <c r="AB3">
-        <v>0.0277120876693017</v>
+        <v>0.02463319843993352</v>
       </c>
       <c r="AC3">
-        <v>0.1103266381270756</v>
+        <v>0.6639427014035719</v>
       </c>
       <c r="AD3">
-        <v>2.59</v>
+        <v>33</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.59</v>
+        <v>33</v>
       </c>
       <c r="AG3">
-        <v>-20.01</v>
+        <v>25.68</v>
       </c>
       <c r="AH3">
-        <v>0.005878481127578928</v>
+        <v>0.5205047318611987</v>
       </c>
       <c r="AI3">
-        <v>0.01586135097066569</v>
+        <v>0.9171762090050029</v>
       </c>
       <c r="AJ3">
-        <v>-0.04787195865929807</v>
+        <v>0.4579172610556348</v>
       </c>
       <c r="AK3">
-        <v>-0.14222759257943</v>
+        <v>0.8960223307745987</v>
       </c>
       <c r="AL3">
-        <v>0.016</v>
+        <v>2.3</v>
       </c>
       <c r="AM3">
-        <v>0.016</v>
+        <v>2.19</v>
       </c>
       <c r="AN3">
-        <v>0.1126086956521739</v>
+        <v>4.269081500646831</v>
       </c>
       <c r="AO3">
-        <v>1381.25</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="AP3">
-        <v>-0.8700000000000001</v>
+        <v>3.322121604139715</v>
       </c>
       <c r="AQ3">
-        <v>1381.25</v>
+        <v>2.009132420091325</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rothschild &amp; Co SCA (ENXTPA:ROTH)</t>
+          <t>ABC arbitrage SA (ENXTPA:ABCA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,110 +855,122 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.0882</v>
+      </c>
+      <c r="E4">
+        <v>0.149</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2886740331491712</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2886740331491712</v>
       </c>
       <c r="I4">
-        <v>-0.005831704255790194</v>
+        <v>0.5538674033149171</v>
       </c>
       <c r="J4">
-        <v>-0.004937972113020388</v>
+        <v>0.552707182320442</v>
       </c>
       <c r="K4">
-        <v>295.4</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>0.1332972338793376</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="M4">
-        <v>145.8</v>
+        <v>21.6</v>
       </c>
       <c r="N4">
-        <v>0.06803546430237985</v>
+        <v>0.04179566563467493</v>
       </c>
       <c r="O4">
-        <v>0.4935680433310766</v>
+        <v>0.54</v>
       </c>
       <c r="P4">
-        <v>65.59999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="Q4">
-        <v>0.03061129258049463</v>
+        <v>0.04179566563467493</v>
       </c>
       <c r="R4">
-        <v>0.2220717670954638</v>
+        <v>0.54</v>
       </c>
       <c r="S4">
-        <v>80.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.5500685871056242</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>5961.9</v>
+        <v>14.6</v>
       </c>
       <c r="V4">
-        <v>2.782034531031264</v>
+        <v>0.02825077399380805</v>
       </c>
       <c r="W4">
-        <v>0.1236345373121835</v>
+        <v>0.2489110143123833</v>
       </c>
       <c r="X4">
-        <v>0.0309203411834758</v>
+        <v>0.01786275174616176</v>
       </c>
       <c r="Y4">
-        <v>0.09271419612870765</v>
+        <v>0.2310482625662216</v>
       </c>
       <c r="Z4">
-        <v>-0.8828444215166817</v>
+        <v>0.5146065818466131</v>
       </c>
       <c r="AA4">
-        <v>0.004359461133584991</v>
+        <v>0.2844267538559955</v>
       </c>
       <c r="AB4">
-        <v>0.02787988994259397</v>
+        <v>0.01785947152720309</v>
       </c>
       <c r="AC4">
-        <v>-0.02352042880900898</v>
+        <v>0.2665672823287924</v>
       </c>
       <c r="AD4">
-        <v>897.4</v>
+        <v>1.93</v>
       </c>
       <c r="AE4">
-        <v>274.6181990062832</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1172.018199006283</v>
+        <v>1.93</v>
       </c>
       <c r="AG4">
-        <v>-4789.881800993717</v>
+        <v>-12.67</v>
       </c>
       <c r="AH4">
-        <v>0.353548043675178</v>
+        <v>0.003720625373508377</v>
       </c>
       <c r="AI4">
-        <v>0.2972690075091939</v>
+        <v>0.01083478358502218</v>
       </c>
       <c r="AJ4">
-        <v>1.809631922058422</v>
+        <v>-0.0251324063237657</v>
       </c>
       <c r="AK4">
-        <v>2.372071990465396</v>
+        <v>-0.07747813856784688</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="AN4">
-        <v>21.36666666666667</v>
+        <v>0.04730392156862745</v>
+      </c>
+      <c r="AO4">
+        <v>1113.888888888889</v>
       </c>
       <c r="AP4">
-        <v>-114.0448047855647</v>
+        <v>-0.3105392156862745</v>
+      </c>
+      <c r="AQ4">
+        <v>1113.888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Natixis S.A. (ENXTPA:KN)</t>
+          <t>Rothschild &amp; Co SCA (ENXTPA:ROTH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,15 +989,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0764</v>
-      </c>
-      <c r="E5">
-        <v>0.148</v>
-      </c>
-      <c r="F5">
-        <v>0.0238</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -999,94 +996,103 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0004723570021875379</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0003982898394493709</v>
       </c>
       <c r="K5">
-        <v>2156.8</v>
+        <v>189.5</v>
       </c>
       <c r="L5">
-        <v>0.195821719432364</v>
+        <v>0.08960234526455151</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>2.92</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.001254511084378759</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.0154089709762533</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>2.92</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.001254511084378759</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.0154089709762533</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>23334.4</v>
+        <v>4388.1</v>
       </c>
       <c r="V5">
-        <v>1.66749322909595</v>
+        <v>1.885246605946039</v>
       </c>
       <c r="W5">
-        <v>0.09471197337104013</v>
+        <v>0.07992071190586648</v>
       </c>
       <c r="X5">
-        <v>0.05200250215572681</v>
+        <v>0.02004516424334168</v>
       </c>
       <c r="Y5">
-        <v>0.04270947121531332</v>
+        <v>0.05987554766252481</v>
       </c>
       <c r="Z5">
-        <v>0.2475150959466232</v>
+        <v>-0.7463795512123019</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0.0002972753916206412</v>
       </c>
       <c r="AB5">
-        <v>0.02851472562355238</v>
+        <v>0.01923628878544371</v>
       </c>
       <c r="AC5">
-        <v>-0.02851472562355238</v>
+        <v>-0.01953356417706436</v>
       </c>
       <c r="AD5">
-        <v>57899.9</v>
+        <v>833.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.35506088036788</v>
       </c>
       <c r="AF5">
-        <v>57899.9</v>
+        <v>834.8550608803679</v>
       </c>
       <c r="AG5">
-        <v>34565.5</v>
+        <v>-3553.244939119632</v>
       </c>
       <c r="AH5">
-        <v>0.8053554141119654</v>
+        <v>0.263989541292631</v>
       </c>
       <c r="AI5">
-        <v>0.7204885393593987</v>
+        <v>0.2263734365247596</v>
       </c>
       <c r="AJ5">
-        <v>0.7118218586797147</v>
+        <v>2.899081802330037</v>
       </c>
       <c r="AK5">
-        <v>0.6061187916026626</v>
+        <v>5.075013387353066</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>656.2992125984252</v>
+      </c>
+      <c r="AP5">
+        <v>-2797.83066072412</v>
       </c>
     </row>
     <row r="6">
@@ -1097,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Advenis SA (ENXTPA:ADV)</t>
+          <t>Natixis S.A. (ENXTPA:KN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1105,23 +1111,32 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.019</v>
+      </c>
+      <c r="E6">
+        <v>-0.347</v>
+      </c>
+      <c r="F6">
+        <v>-0.0649</v>
+      </c>
       <c r="G6">
-        <v>0.008942891859052247</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.008942891859052247</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01798298906439854</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01798298906439854</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-1.19</v>
+        <v>175</v>
       </c>
       <c r="L6">
-        <v>-0.01445929526123937</v>
+        <v>0.02033984983379437</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1130,7 +1145,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1139,79 +1154,67 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3.36</v>
+        <v>31939.9</v>
       </c>
       <c r="V6">
-        <v>0.28</v>
+        <v>2.972148812625624</v>
       </c>
       <c r="W6">
-        <v>-0.1547464239271781</v>
+        <v>0.008315672429031676</v>
       </c>
       <c r="X6">
-        <v>0.04248556379579296</v>
+        <v>0.04370652134514222</v>
       </c>
       <c r="Y6">
-        <v>-0.1972319877229711</v>
+        <v>-0.03539084891611054</v>
       </c>
       <c r="Z6">
-        <v>-22.92479108635095</v>
+        <v>0.1675272987834322</v>
       </c>
       <c r="AA6">
-        <v>-0.4122562674094704</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03101740188961433</v>
+        <v>0.02256977208924065</v>
       </c>
       <c r="AC6">
-        <v>-0.4432736692990847</v>
+        <v>-0.02256977208924065</v>
       </c>
       <c r="AD6">
-        <v>30.2</v>
+        <v>45209</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>30.2</v>
+        <v>45209</v>
       </c>
       <c r="AG6">
-        <v>26.84</v>
+        <v>13269.1</v>
       </c>
       <c r="AH6">
-        <v>0.7156398104265402</v>
+        <v>0.8079470435382465</v>
       </c>
       <c r="AI6">
-        <v>0.8337934842628382</v>
+        <v>0.6684023927590358</v>
       </c>
       <c r="AJ6">
-        <v>0.6910401647785788</v>
+        <v>0.5525223293289749</v>
       </c>
       <c r="AK6">
-        <v>0.8167985392574559</v>
+        <v>0.3717095034666293</v>
       </c>
       <c r="AL6">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.199</v>
-      </c>
-      <c r="AN6">
-        <v>17.76470588235294</v>
-      </c>
-      <c r="AO6">
-        <v>0.6192468619246861</v>
-      </c>
-      <c r="AP6">
-        <v>15.78823529411765</v>
-      </c>
-      <c r="AQ6">
-        <v>0.6730331969076853</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
